--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_205__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_205__Reeval_LHS_Modell_1.2.xlsx
@@ -5891,7 +5891,7 @@
                   <c:v>41.54574203491211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.31026077270508</c:v>
+                  <c:v>54.31026458740234</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>84.93930816650391</c:v>
@@ -5915,7 +5915,7 @@
                   <c:v>41.54574203491211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.44588851928711</c:v>
+                  <c:v>49.44589614868164</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>69.87779235839844</c:v>
@@ -5930,7 +5930,7 @@
                   <c:v>41.54574203491211</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.95900344848633</c:v>
+                  <c:v>56.95899963378906</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>41.54574203491211</c:v>
@@ -5957,10 +5957,10 @@
                   <c:v>56.25712203979492</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74.26486206054688</c:v>
+                  <c:v>74.26485443115234</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.9034309387207</c:v>
+                  <c:v>55.90343856811523</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>41.54574203491211</c:v>
@@ -5984,7 +5984,7 @@
                   <c:v>42.94967651367188</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>69.46752166748047</c:v>
+                  <c:v>69.467529296875</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>65.91082763671875</c:v>
@@ -5996,7 +5996,7 @@
                   <c:v>41.54574203491211</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51.8842658996582</c:v>
+                  <c:v>51.88426971435547</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>41.54574203491211</c:v>
@@ -6023,7 +6023,7 @@
                   <c:v>60.02157974243164</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52.63636779785156</c:v>
+                  <c:v>52.63637161254883</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>52.27814865112305</c:v>
@@ -6047,13 +6047,13 @@
                   <c:v>41.54574203491211</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>60.55624389648438</c:v>
+                  <c:v>60.55623626708984</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>44.61746978759766</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>52.17599487304688</c:v>
+                  <c:v>52.17600250244141</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>86.37950897216797</c:v>
@@ -6068,7 +6068,7 @@
                   <c:v>49.02295303344727</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>69.17457580566406</c:v>
+                  <c:v>69.17458343505859</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>41.54574203491211</c:v>
@@ -6089,10 +6089,10 @@
                   <c:v>47.31755828857422</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43.09796524047852</c:v>
+                  <c:v>43.09796142578125</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>58.12718200683594</c:v>
+                  <c:v>58.12717437744141</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>43.96442031860352</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>53.76178741455078</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>56.59199905395508</c:v>
+                  <c:v>56.59201049804688</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>55.96320343017578</c:v>
@@ -6125,7 +6125,7 @@
                   <c:v>65.41133880615234</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45.32965469360352</c:v>
+                  <c:v>45.32965087890625</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>41.54574203491211</c:v>
@@ -6137,7 +6137,7 @@
                   <c:v>44.55839157104492</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>57.72128295898438</c:v>
+                  <c:v>57.72127914428711</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>57.5479621887207</c:v>
@@ -6161,7 +6161,7 @@
                   <c:v>41.54574203491211</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>59.2391471862793</c:v>
+                  <c:v>59.23915481567383</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>48.34610366821289</c:v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>54.31026077270508</v>
+        <v>54.31026458740234</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.44588851928711</v>
+        <v>49.44589614868164</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>56.95900344848633</v>
+        <v>56.95899963378906</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>74.26486206054688</v>
+        <v>74.26485443115234</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>87.8788</v>
       </c>
       <c r="F31">
-        <v>55.9034309387207</v>
+        <v>55.90343856811523</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>95.8798</v>
       </c>
       <c r="F39">
-        <v>69.46752166748047</v>
+        <v>69.467529296875</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>88.684</v>
       </c>
       <c r="F43">
-        <v>51.8842658996582</v>
+        <v>51.88426971435547</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>87.05159999999999</v>
       </c>
       <c r="F52">
-        <v>52.63636779785156</v>
+        <v>52.63637161254883</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.90219999999999</v>
       </c>
       <c r="F60">
-        <v>60.55624389648438</v>
+        <v>60.55623626708984</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>93.1279</v>
       </c>
       <c r="F62">
-        <v>52.17599487304688</v>
+        <v>52.17600250244141</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>69.17457580566406</v>
+        <v>69.17458343505859</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.41719999999999</v>
       </c>
       <c r="F74">
-        <v>43.09796524047852</v>
+        <v>43.09796142578125</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>89.6328</v>
       </c>
       <c r="F75">
-        <v>58.12718200683594</v>
+        <v>58.12717437744141</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>56.59199905395508</v>
+        <v>56.59201049804688</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>45.32965469360352</v>
+        <v>45.32965087890625</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>57.72128295898438</v>
+        <v>57.72127914428711</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>84.1915</v>
       </c>
       <c r="F98">
-        <v>59.2391471862793</v>
+        <v>59.23915481567383</v>
       </c>
     </row>
     <row r="99" spans="1:6">
